--- a/rental-pricing-explore-normal/data/raw/realestate.xlsx
+++ b/rental-pricing-explore-normal/data/raw/realestate.xlsx
@@ -841,13 +841,13 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="新細明體"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -934,7 +934,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
